--- a/sfe_24/GVFs/width_5m_40m_0p50m_max_width_diff.xlsx
+++ b/sfe_24/GVFs/width_5m_40m_0p50m_max_width_diff.xlsx
@@ -471,10 +471,10 @@
         <v>999.7329999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>1001.633</v>
+        <v>1001.653</v>
       </c>
       <c r="E2" t="n">
-        <v>15.21661040738299</v>
+        <v>15.29554708808117</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -491,10 +491,10 @@
         <v>999.5650000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1001.865</v>
+        <v>1002.615</v>
       </c>
       <c r="E3" t="n">
-        <v>20.30292967690056</v>
+        <v>26.88279016741986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>999.3321999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1002.4322</v>
+        <v>1002.6122</v>
       </c>
       <c r="E4" t="n">
-        <v>24.39548606598052</v>
+        <v>26.6604139725278</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>999.1422</v>
       </c>
       <c r="D5" t="n">
-        <v>1000.3422</v>
+        <v>999.2122000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>12.42103512878574</v>
+        <v>2.544614117009413</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>998.9698</v>
       </c>
       <c r="D6" t="n">
-        <v>1000.6198</v>
+        <v>998.9798</v>
       </c>
       <c r="E6" t="n">
-        <v>13.54568362870428</v>
+        <v>0.8031855761750748</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>998.8258</v>
       </c>
       <c r="D7" t="n">
-        <v>1000.5258</v>
+        <v>998.9158</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24272638493559</v>
+        <v>2.765098066357144</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>998.8767</v>
       </c>
       <c r="D8" t="n">
-        <v>1000.8267</v>
+        <v>998.8867</v>
       </c>
       <c r="E8" t="n">
-        <v>14.66143271827651</v>
+        <v>0.5847737083521025</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>998.7861</v>
       </c>
       <c r="D9" t="n">
-        <v>1000.9361</v>
+        <v>1002.8361</v>
       </c>
       <c r="E9" t="n">
-        <v>15.37997221025982</v>
+        <v>25.44172719123613</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>998.7323</v>
       </c>
       <c r="D10" t="n">
-        <v>999.1823000000001</v>
+        <v>1002.8923</v>
       </c>
       <c r="E10" t="n">
-        <v>10.18847701479495</v>
+        <v>26.87651519319431</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>998.8971</v>
       </c>
       <c r="D11" t="n">
-        <v>999.3971</v>
+        <v>998.9071</v>
       </c>
       <c r="E11" t="n">
-        <v>10.20267756205769</v>
+        <v>1.034266251264039</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>999.1799999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>999.53</v>
+        <v>999.1899999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>10.59586320672018</v>
+        <v>0.799406027060094</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>999.3552</v>
       </c>
       <c r="D13" t="n">
-        <v>999.6052</v>
+        <v>999.3652</v>
       </c>
       <c r="E13" t="n">
-        <v>10.66575287630375</v>
+        <v>1.142620454597694</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>999.4521999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>999.7021999999999</v>
+        <v>999.6822</v>
       </c>
       <c r="E14" t="n">
-        <v>11.38026527350622</v>
+        <v>7.512755725250473</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -731,10 +731,10 @@
         <v>999.4375</v>
       </c>
       <c r="D15" t="n">
-        <v>999.5375</v>
+        <v>999.5275</v>
       </c>
       <c r="E15" t="n">
-        <v>13.0829014180531</v>
+        <v>4.028408204467045</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>999.1108</v>
       </c>
       <c r="D16" t="n">
-        <v>999.5108</v>
+        <v>999.4708000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>10.6616359254184</v>
+        <v>2.262019596131806</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>998.987</v>
       </c>
       <c r="D17" t="n">
-        <v>999.6369999999999</v>
+        <v>999.587</v>
       </c>
       <c r="E17" t="n">
-        <v>13.69842141703933</v>
+        <v>6.40854287009064</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>999.0284</v>
       </c>
       <c r="D18" t="n">
-        <v>1002.1284</v>
+        <v>1002.1484</v>
       </c>
       <c r="E18" t="n">
-        <v>23.46995588855433</v>
+        <v>23.55389691822839</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>999.5572</v>
       </c>
       <c r="D19" t="n">
-        <v>1002.0572</v>
+        <v>1002.0772</v>
       </c>
       <c r="E19" t="n">
-        <v>24.61761144282985</v>
+        <v>24.71060241166656</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>999.4690000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1002.219</v>
+        <v>1002.229</v>
       </c>
       <c r="E20" t="n">
-        <v>22.18405011186589</v>
+        <v>22.2260310866221</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>999.4039</v>
       </c>
       <c r="D21" t="n">
-        <v>1002.0539</v>
+        <v>999.4939000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>20.95164961524347</v>
+        <v>3.335233350705824</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>999.2431</v>
       </c>
       <c r="D22" t="n">
-        <v>1002.0431</v>
+        <v>1002.0731</v>
       </c>
       <c r="E22" t="n">
-        <v>21.82236559094324</v>
+        <v>21.96730963314954</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>999.2411</v>
       </c>
       <c r="D23" t="n">
-        <v>1002.0411</v>
+        <v>1002.0811</v>
       </c>
       <c r="E23" t="n">
-        <v>24.40792828687685</v>
+        <v>24.6116715339525</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>999.1597</v>
       </c>
       <c r="D24" t="n">
-        <v>1002.3597</v>
+        <v>1002.3897</v>
       </c>
       <c r="E24" t="n">
-        <v>22.36812024585719</v>
+        <v>22.48444673002848</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>999.1994</v>
       </c>
       <c r="D25" t="n">
-        <v>1002.1994</v>
+        <v>999.2194</v>
       </c>
       <c r="E25" t="n">
-        <v>24.27759950177644</v>
+        <v>2.23688185141545</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>999.1404</v>
       </c>
       <c r="D26" t="n">
-        <v>1002.6904</v>
+        <v>999.1504</v>
       </c>
       <c r="E26" t="n">
-        <v>29.80138763431839</v>
+        <v>1.552254301130827</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>999.0131</v>
       </c>
       <c r="D27" t="n">
-        <v>1002.7131</v>
+        <v>1002.7431</v>
       </c>
       <c r="E27" t="n">
-        <v>25.49831205816323</v>
+        <v>25.9293843736364</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>998.8912</v>
       </c>
       <c r="D28" t="n">
-        <v>1002.7412</v>
+        <v>1002.7512</v>
       </c>
       <c r="E28" t="n">
-        <v>24.37817612633258</v>
+        <v>24.42236246343788</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>998.8389</v>
       </c>
       <c r="D29" t="n">
-        <v>1002.7389</v>
+        <v>1002.7589</v>
       </c>
       <c r="E29" t="n">
-        <v>23.68666687270598</v>
+        <v>23.7626100601934</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>998.7931</v>
       </c>
       <c r="D30" t="n">
-        <v>1002.7931</v>
+        <v>1002.8131</v>
       </c>
       <c r="E30" t="n">
-        <v>24.55221368461969</v>
+        <v>24.62805809245503</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>998.5502</v>
       </c>
       <c r="D31" t="n">
-        <v>1002.8002</v>
+        <v>1002.8402</v>
       </c>
       <c r="E31" t="n">
-        <v>24.66560097488719</v>
+        <v>24.8262810147128</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>998.6431</v>
       </c>
       <c r="D32" t="n">
-        <v>1002.7931</v>
+        <v>1002.8231</v>
       </c>
       <c r="E32" t="n">
-        <v>25.76747168109925</v>
+        <v>25.88789429056868</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>998.853</v>
       </c>
       <c r="D33" t="n">
-        <v>999.203</v>
+        <v>998.8729999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>9.964243973508818</v>
+        <v>1.121372475637205</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>998.9109</v>
       </c>
       <c r="D34" t="n">
-        <v>999.2108999999999</v>
+        <v>999.1908999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>10.98122382288149</v>
+        <v>5.462544389761426</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>998.9532</v>
       </c>
       <c r="D35" t="n">
-        <v>999.2032</v>
+        <v>999.1932</v>
       </c>
       <c r="E35" t="n">
-        <v>9.995937362141945</v>
+        <v>4.638987942643283</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>999.0898999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>999.2398999999999</v>
+        <v>999.1899</v>
       </c>
       <c r="E36" t="n">
-        <v>10.45154568735257</v>
+        <v>3.828698536461413</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>999.1251999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>999.4251999999999</v>
+        <v>999.2851999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>10.90105252968788</v>
+        <v>4.105904986613771</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>999.1849</v>
       </c>
       <c r="D38" t="n">
-        <v>999.3348999999999</v>
+        <v>999.2148999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>10.7266825230087</v>
+        <v>2.005524215114775</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>999.0794</v>
       </c>
       <c r="D39" t="n">
-        <v>999.4294</v>
+        <v>999.4194</v>
       </c>
       <c r="E39" t="n">
-        <v>11.96408500235813</v>
+        <v>9.269361446905494</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>999.0678</v>
       </c>
       <c r="D40" t="n">
-        <v>999.4178000000001</v>
+        <v>999.3878000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>12.34039125573134</v>
+        <v>8.719962065011165</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
